--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/Exportar/1.1.EEE_calentadores_electrico_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/Exportar/1.1.EEE_calentadores_electrico_exp.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JK\Desktop\EXCEL EXPORTAR LISTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE519AEB-47BC-4E58-9067-97DB1C16E57C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="6885" activeTab="2"/>
+    <workbookView xWindow="4545" yWindow="435" windowWidth="14400" windowHeight="7290" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
     <sheet name="Proveedores" sheetId="2" r:id="rId2"/>
-    <sheet name="EEE Calentador (Eléctrico)" sheetId="8" r:id="rId3"/>
-    <sheet name="Variables" sheetId="4" r:id="rId4"/>
-    <sheet name="Factores" sheetId="5" r:id="rId5"/>
+    <sheet name="Variables" sheetId="4" r:id="rId3"/>
+    <sheet name="Factores" sheetId="5" r:id="rId4"/>
+    <sheet name="EEE Calentador (Eléctrico)" sheetId="8" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -35,22 +36,28 @@
     <definedName name="Lista_meses">Variables!$S$87:$S$98</definedName>
     <definedName name="Tabla_mes">Variables!$S$87:$T$98</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MRV</author>
   </authors>
   <commentList>
-    <comment ref="G11" authorId="0" shapeId="0">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0">
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H181" authorId="0" shapeId="0">
+    <comment ref="H181" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E221" authorId="0" shapeId="0">
+    <comment ref="E221" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -107,12 +114,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MRV</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2443,16 +2450,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="47" x14ac:knownFonts="1">
     <font>
@@ -3728,7 +3735,7 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -3859,21 +3866,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3881,8 +3888,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3891,10 +3898,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3994,12 +4001,12 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4016,7 +4023,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4042,9 +4049,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4067,7 +4074,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4157,7 +4164,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4169,61 +4176,61 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="19" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="19" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4231,20 +4238,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="19" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="19" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="19" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="19" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="4" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="4" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="19" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4277,7 +4284,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4290,10 +4297,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4312,11 +4319,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="24" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="24" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4571,7 +4578,7 @@
     <xf numFmtId="3" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4649,6 +4656,57 @@
     <xf numFmtId="0" fontId="43" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4667,21 +4725,6 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4690,42 +4733,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4738,7 +4745,7 @@
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 3" xfId="4"/>
+    <cellStyle name="Normal 10 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4763,7 +4770,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4777,7 +4784,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4803,7 +4809,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4920,6 +4926,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDBE-4B78-A1C6-C617AE8F8A2F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4975,7 +4986,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="274014848"/>
@@ -5034,7 +5045,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="274014288"/>
@@ -5075,7 +5086,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5087,7 +5098,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5101,7 +5112,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5127,7 +5137,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5244,6 +5254,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DC7-4BF5-B536-F52EF46BD8BB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5299,7 +5314,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="260824880"/>
@@ -5358,7 +5373,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="260824320"/>
@@ -5399,7 +5414,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5411,7 +5426,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5450,7 +5465,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5567,6 +5582,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A1A-45D9-9071-DA1A43FAF3AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5622,7 +5642,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="260827680"/>
@@ -5681,7 +5701,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="260827120"/>
@@ -5722,7 +5742,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5734,7 +5754,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5773,7 +5793,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5890,6 +5910,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62BC-4ED3-8960-0902AF9C9C60}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5945,7 +5970,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="274934704"/>
@@ -6004,7 +6029,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="274934144"/>
@@ -6045,7 +6070,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6057,7 +6082,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6096,7 +6121,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6213,6 +6238,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BB1-417F-9922-FC9C0557FB49}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6268,7 +6298,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302029536"/>
@@ -6327,7 +6357,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302028976"/>
@@ -6368,7 +6398,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6380,7 +6410,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6419,7 +6449,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6536,6 +6566,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A52F-41CB-A6B0-4721F96601E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6591,7 +6626,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="300407536"/>
@@ -6650,7 +6685,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302031776"/>
@@ -6691,7 +6726,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6703,7 +6738,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6742,7 +6777,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6859,6 +6894,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48F3-4978-8BB7-40A2E254A642}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6914,7 +6954,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="300410336"/>
@@ -6973,7 +7013,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="300409776"/>
@@ -7014,7 +7054,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10838,7 +10878,13 @@
     <xdr:ext cx="3945701" cy="381985"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10937,7 +10983,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11027,7 +11079,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo 3"/>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11092,7 +11150,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11122,7 +11186,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11154,7 +11224,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11186,7 +11262,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11218,7 +11300,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11250,7 +11338,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11282,7 +11376,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12761,7 +12861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -13062,7 +13162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13391,217 +13491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="320" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="320"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="322" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="321"/>
-      <c r="H2" s="321"/>
-      <c r="I2" s="320"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="320"/>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="321"/>
-      <c r="H3" s="321"/>
-      <c r="I3" s="320"/>
-    </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="323" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="324"/>
-      <c r="D4" s="325"/>
-      <c r="E4" s="324"/>
-      <c r="F4" s="326"/>
-      <c r="G4" s="327"/>
-      <c r="H4" s="327"/>
-      <c r="I4" s="370" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="328" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="328" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="329" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5" s="328" t="s">
-        <v>264</v>
-      </c>
-      <c r="F5" s="330" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="331"/>
-      <c r="H5" s="332" t="s">
-        <v>265</v>
-      </c>
-      <c r="I5" s="370"/>
-    </row>
-    <row r="6" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="333" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="334"/>
-      <c r="H6" s="335"/>
-      <c r="I6" s="336" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="337">
-        <v>2014</v>
-      </c>
-      <c r="C7" s="337">
-        <v>50</v>
-      </c>
-      <c r="D7" s="337" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="337" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="338">
-        <v>7000</v>
-      </c>
-      <c r="G7" s="80">
-        <f>VLOOKUP(H7,Tabla_mes,2,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="H7" s="339" t="s">
-        <v>257</v>
-      </c>
-      <c r="I7" s="340">
-        <f>(Variables!F98-Variables!F94)/(1-Factores!$C$12)*1/1000*Factores!$Q$12*F7</f>
-        <v>791.92131431783184</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="337">
-        <v>2015</v>
-      </c>
-      <c r="C8" s="337">
-        <v>150</v>
-      </c>
-      <c r="D8" s="337" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="337" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="338">
-        <v>2000</v>
-      </c>
-      <c r="G8" s="80">
-        <f>VLOOKUP(H8,Tabla_mes,2,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="H8" s="339" t="s">
-        <v>273</v>
-      </c>
-      <c r="I8" s="340">
-        <f>(Variables!F104-Variables!F101)/(1-Factores!$C$12)*1/1000*Factores!$Q$12*F8*7/12</f>
-        <v>554.56674672117038</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="341"/>
-      <c r="D9" s="342"/>
-      <c r="E9" s="343"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345">
-        <f>SUM(I7:I8)</f>
-        <v>1346.4880610390023</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I4:I5"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8">
-      <formula1>Lista_meses</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Variables!$B$93:$B$95</xm:f>
-          </x14:formula1>
-          <xm:sqref>C7:C8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Variables!$F$12:$F$18</xm:f>
-          </x14:formula1>
-          <xm:sqref>D7:E8</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AY305"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R92" sqref="R92"/>
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13766,18 +13660,18 @@
       <c r="D3" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="387" t="s">
+      <c r="E3" s="384" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="387"/>
-      <c r="G3" s="387"/>
-      <c r="H3" s="387"/>
-      <c r="I3" s="387"/>
-      <c r="J3" s="387"/>
-      <c r="K3" s="387"/>
-      <c r="L3" s="387"/>
-      <c r="M3" s="387"/>
-      <c r="N3" s="387"/>
+      <c r="F3" s="384"/>
+      <c r="G3" s="384"/>
+      <c r="H3" s="384"/>
+      <c r="I3" s="384"/>
+      <c r="J3" s="384"/>
+      <c r="K3" s="384"/>
+      <c r="L3" s="384"/>
+      <c r="M3" s="384"/>
+      <c r="N3" s="384"/>
       <c r="P3" s="306" t="s">
         <v>145</v>
       </c>
@@ -17473,20 +17367,20 @@
       </c>
     </row>
     <row r="40" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="388" t="s">
+      <c r="D40" s="385" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="388"/>
-      <c r="F40" s="388"/>
-      <c r="G40" s="388"/>
+      <c r="E40" s="385"/>
+      <c r="F40" s="385"/>
+      <c r="G40" s="385"/>
       <c r="H40" s="222"/>
       <c r="I40" s="222"/>
-      <c r="J40" s="388" t="s">
+      <c r="J40" s="385" t="s">
         <v>167</v>
       </c>
-      <c r="K40" s="388"/>
-      <c r="L40" s="388"/>
-      <c r="M40" s="388"/>
+      <c r="K40" s="385"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
       <c r="N40" s="222"/>
       <c r="O40" s="222"/>
       <c r="P40" s="313" t="s">
@@ -17497,13 +17391,13 @@
       <c r="S40" s="225"/>
       <c r="T40" s="224"/>
       <c r="U40" s="224"/>
-      <c r="V40" s="395" t="s">
+      <c r="V40" s="373" t="s">
         <v>171</v>
       </c>
-      <c r="W40" s="395"/>
-      <c r="X40" s="395"/>
-      <c r="Y40" s="395"/>
-      <c r="Z40" s="395"/>
+      <c r="W40" s="373"/>
+      <c r="X40" s="373"/>
+      <c r="Y40" s="373"/>
+      <c r="Z40" s="373"/>
       <c r="AA40" s="224"/>
       <c r="AB40" s="226" t="s">
         <v>174</v>
@@ -17511,19 +17405,19 @@
       <c r="AC40" s="224"/>
       <c r="AD40" s="224"/>
       <c r="AG40" s="224"/>
-      <c r="AH40" s="392" t="s">
+      <c r="AH40" s="374" t="s">
         <v>175</v>
       </c>
-      <c r="AI40" s="392"/>
-      <c r="AJ40" s="392"/>
-      <c r="AK40" s="392"/>
-      <c r="AN40" s="395" t="s">
+      <c r="AI40" s="374"/>
+      <c r="AJ40" s="374"/>
+      <c r="AK40" s="374"/>
+      <c r="AN40" s="373" t="s">
         <v>177</v>
       </c>
-      <c r="AO40" s="395"/>
-      <c r="AP40" s="395"/>
-      <c r="AQ40" s="395"/>
-      <c r="AR40" s="395"/>
+      <c r="AO40" s="373"/>
+      <c r="AP40" s="373"/>
+      <c r="AQ40" s="373"/>
+      <c r="AR40" s="373"/>
       <c r="AU40" s="224"/>
       <c r="AV40" s="224"/>
       <c r="AW40" s="224"/>
@@ -17531,58 +17425,58 @@
       <c r="AY40" s="224"/>
     </row>
     <row r="41" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="389" t="s">
+      <c r="D41" s="372" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="389"/>
-      <c r="F41" s="389"/>
-      <c r="G41" s="389"/>
+      <c r="E41" s="372"/>
+      <c r="F41" s="372"/>
+      <c r="G41" s="372"/>
       <c r="H41" s="223"/>
       <c r="I41" s="223"/>
-      <c r="J41" s="389" t="s">
+      <c r="J41" s="372" t="s">
         <v>93</v>
       </c>
-      <c r="K41" s="389"/>
-      <c r="L41" s="389"/>
-      <c r="M41" s="389"/>
+      <c r="K41" s="372"/>
+      <c r="L41" s="372"/>
+      <c r="M41" s="372"/>
       <c r="N41" s="223"/>
       <c r="O41" s="223"/>
-      <c r="P41" s="389" t="s">
+      <c r="P41" s="372" t="s">
         <v>93</v>
       </c>
-      <c r="Q41" s="389"/>
-      <c r="R41" s="389"/>
-      <c r="S41" s="389"/>
+      <c r="Q41" s="372"/>
+      <c r="R41" s="372"/>
+      <c r="S41" s="372"/>
       <c r="T41" s="223"/>
       <c r="U41" s="223"/>
-      <c r="V41" s="389" t="s">
+      <c r="V41" s="372" t="s">
         <v>93</v>
       </c>
-      <c r="W41" s="389"/>
-      <c r="X41" s="389"/>
-      <c r="Y41" s="389"/>
-      <c r="Z41" s="389"/>
+      <c r="W41" s="372"/>
+      <c r="X41" s="372"/>
+      <c r="Y41" s="372"/>
+      <c r="Z41" s="372"/>
       <c r="AA41" s="223"/>
-      <c r="AB41" s="389" t="s">
+      <c r="AB41" s="372" t="s">
         <v>93</v>
       </c>
-      <c r="AC41" s="389"/>
-      <c r="AD41" s="389"/>
-      <c r="AE41" s="389"/>
+      <c r="AC41" s="372"/>
+      <c r="AD41" s="372"/>
+      <c r="AE41" s="372"/>
       <c r="AG41" s="223"/>
-      <c r="AH41" s="389" t="s">
+      <c r="AH41" s="372" t="s">
         <v>93</v>
       </c>
-      <c r="AI41" s="389"/>
-      <c r="AJ41" s="389"/>
-      <c r="AK41" s="389"/>
-      <c r="AN41" s="389" t="s">
+      <c r="AI41" s="372"/>
+      <c r="AJ41" s="372"/>
+      <c r="AK41" s="372"/>
+      <c r="AN41" s="372" t="s">
         <v>93</v>
       </c>
-      <c r="AO41" s="389"/>
-      <c r="AP41" s="389"/>
-      <c r="AQ41" s="389"/>
-      <c r="AR41" s="389"/>
+      <c r="AO41" s="372"/>
+      <c r="AP41" s="372"/>
+      <c r="AQ41" s="372"/>
+      <c r="AR41" s="372"/>
       <c r="AU41" s="223"/>
       <c r="AV41" s="223"/>
       <c r="AW41" s="223"/>
@@ -17590,46 +17484,46 @@
       <c r="AY41" s="223"/>
     </row>
     <row r="42" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="D42" s="389"/>
-      <c r="E42" s="389"/>
-      <c r="F42" s="389"/>
-      <c r="G42" s="389"/>
+      <c r="D42" s="372"/>
+      <c r="E42" s="372"/>
+      <c r="F42" s="372"/>
+      <c r="G42" s="372"/>
       <c r="H42" s="223"/>
       <c r="I42" s="223"/>
-      <c r="J42" s="389"/>
-      <c r="K42" s="389"/>
-      <c r="L42" s="389"/>
-      <c r="M42" s="389"/>
+      <c r="J42" s="372"/>
+      <c r="K42" s="372"/>
+      <c r="L42" s="372"/>
+      <c r="M42" s="372"/>
       <c r="N42" s="223"/>
       <c r="O42" s="223"/>
-      <c r="P42" s="389"/>
-      <c r="Q42" s="389"/>
-      <c r="R42" s="389"/>
-      <c r="S42" s="389"/>
+      <c r="P42" s="372"/>
+      <c r="Q42" s="372"/>
+      <c r="R42" s="372"/>
+      <c r="S42" s="372"/>
       <c r="T42" s="223"/>
       <c r="U42" s="223"/>
-      <c r="V42" s="389"/>
-      <c r="W42" s="389"/>
-      <c r="X42" s="389"/>
-      <c r="Y42" s="389"/>
-      <c r="Z42" s="389"/>
+      <c r="V42" s="372"/>
+      <c r="W42" s="372"/>
+      <c r="X42" s="372"/>
+      <c r="Y42" s="372"/>
+      <c r="Z42" s="372"/>
       <c r="AA42" s="223"/>
-      <c r="AB42" s="389"/>
-      <c r="AC42" s="389"/>
-      <c r="AD42" s="389"/>
-      <c r="AE42" s="389"/>
+      <c r="AB42" s="372"/>
+      <c r="AC42" s="372"/>
+      <c r="AD42" s="372"/>
+      <c r="AE42" s="372"/>
       <c r="AF42" s="223"/>
       <c r="AG42" s="223"/>
-      <c r="AH42" s="389"/>
-      <c r="AI42" s="389"/>
-      <c r="AJ42" s="389"/>
-      <c r="AK42" s="389"/>
+      <c r="AH42" s="372"/>
+      <c r="AI42" s="372"/>
+      <c r="AJ42" s="372"/>
+      <c r="AK42" s="372"/>
       <c r="AM42" s="223"/>
-      <c r="AN42" s="389"/>
-      <c r="AO42" s="389"/>
-      <c r="AP42" s="389"/>
-      <c r="AQ42" s="389"/>
-      <c r="AR42" s="389"/>
+      <c r="AN42" s="372"/>
+      <c r="AO42" s="372"/>
+      <c r="AP42" s="372"/>
+      <c r="AQ42" s="372"/>
+      <c r="AR42" s="372"/>
       <c r="AT42" s="223"/>
       <c r="AU42" s="223"/>
       <c r="AV42" s="223"/>
@@ -19335,44 +19229,44 @@
       </c>
     </row>
     <row r="81" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D81" s="371" t="s">
+      <c r="D81" s="388" t="s">
         <v>239</v>
       </c>
-      <c r="E81" s="371"/>
-      <c r="F81" s="371"/>
-      <c r="G81" s="371"/>
-      <c r="H81" s="371"/>
-      <c r="I81" s="371"/>
-      <c r="J81" s="371"/>
-      <c r="K81" s="371"/>
-      <c r="M81" s="392" t="s">
+      <c r="E81" s="388"/>
+      <c r="F81" s="388"/>
+      <c r="G81" s="388"/>
+      <c r="H81" s="388"/>
+      <c r="I81" s="388"/>
+      <c r="J81" s="388"/>
+      <c r="K81" s="388"/>
+      <c r="M81" s="374" t="s">
         <v>179</v>
       </c>
-      <c r="N81" s="392"/>
-      <c r="O81" s="392"/>
-      <c r="P81" s="392"/>
+      <c r="N81" s="374"/>
+      <c r="O81" s="374"/>
+      <c r="P81" s="374"/>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D82" s="372"/>
-      <c r="E82" s="372"/>
-      <c r="F82" s="372"/>
-      <c r="G82" s="372"/>
-      <c r="H82" s="372"/>
-      <c r="I82" s="372"/>
-      <c r="J82" s="372"/>
-      <c r="K82" s="372"/>
-      <c r="M82" s="389" t="s">
+      <c r="D82" s="389"/>
+      <c r="E82" s="389"/>
+      <c r="F82" s="389"/>
+      <c r="G82" s="389"/>
+      <c r="H82" s="389"/>
+      <c r="I82" s="389"/>
+      <c r="J82" s="389"/>
+      <c r="K82" s="389"/>
+      <c r="M82" s="372" t="s">
         <v>93</v>
       </c>
-      <c r="N82" s="389"/>
-      <c r="O82" s="389"/>
-      <c r="P82" s="389"/>
+      <c r="N82" s="372"/>
+      <c r="O82" s="372"/>
+      <c r="P82" s="372"/>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M83" s="389"/>
-      <c r="N83" s="389"/>
-      <c r="O83" s="389"/>
-      <c r="P83" s="389"/>
+      <c r="M83" s="372"/>
+      <c r="N83" s="372"/>
+      <c r="O83" s="372"/>
+      <c r="P83" s="372"/>
     </row>
     <row r="84" spans="2:20" s="179" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D84" s="180" t="s">
@@ -19786,11 +19680,11 @@
         <f>[2]CEA!$D$21</f>
         <v>600.4777107007576</v>
       </c>
-      <c r="H94" s="390" t="s">
+      <c r="H94" s="386" t="s">
         <v>239</v>
       </c>
-      <c r="I94" s="390"/>
-      <c r="J94" s="390"/>
+      <c r="I94" s="386"/>
+      <c r="J94" s="386"/>
       <c r="K94" s="298">
         <v>150</v>
       </c>
@@ -19830,9 +19724,9 @@
         <f>[2]CEA!$G$21</f>
         <v>625.34956854043412</v>
       </c>
-      <c r="H95" s="391"/>
-      <c r="I95" s="391"/>
-      <c r="J95" s="391"/>
+      <c r="H95" s="387"/>
+      <c r="I95" s="387"/>
+      <c r="J95" s="387"/>
       <c r="L95" s="75" t="s">
         <v>80</v>
       </c>
@@ -19866,9 +19760,9 @@
         <f>[2]CEA!$J$21</f>
         <v>688.94443991742742</v>
       </c>
-      <c r="H96" s="391"/>
-      <c r="I96" s="391"/>
-      <c r="J96" s="391"/>
+      <c r="H96" s="387"/>
+      <c r="I96" s="387"/>
+      <c r="J96" s="387"/>
       <c r="L96" s="75" t="s">
         <v>82</v>
       </c>
@@ -20022,12 +19916,12 @@
         <v>1801.433132102273</v>
       </c>
       <c r="K101" s="299"/>
-      <c r="L101" s="385" t="s">
+      <c r="L101" s="382" t="s">
         <v>239</v>
       </c>
-      <c r="M101" s="385"/>
-      <c r="N101" s="385"/>
-      <c r="O101" s="385"/>
+      <c r="M101" s="382"/>
+      <c r="N101" s="382"/>
+      <c r="O101" s="382"/>
       <c r="P101" s="319"/>
     </row>
     <row r="102" spans="4:20" x14ac:dyDescent="0.25">
@@ -20043,10 +19937,10 @@
         <v>1945.1057131901846</v>
       </c>
       <c r="K102" s="299"/>
-      <c r="L102" s="386"/>
-      <c r="M102" s="386"/>
-      <c r="N102" s="386"/>
-      <c r="O102" s="386"/>
+      <c r="L102" s="383"/>
+      <c r="M102" s="383"/>
+      <c r="N102" s="383"/>
+      <c r="O102" s="383"/>
       <c r="P102" s="319"/>
     </row>
     <row r="103" spans="4:20" x14ac:dyDescent="0.25">
@@ -20062,10 +19956,10 @@
         <v>2327.8431075624085</v>
       </c>
       <c r="K103" s="299"/>
-      <c r="L103" s="386"/>
-      <c r="M103" s="386"/>
-      <c r="N103" s="386"/>
-      <c r="O103" s="386"/>
+      <c r="L103" s="383"/>
+      <c r="M103" s="383"/>
+      <c r="N103" s="383"/>
+      <c r="O103" s="383"/>
       <c r="P103" s="319"/>
     </row>
     <row r="104" spans="4:20" x14ac:dyDescent="0.25">
@@ -20145,11 +20039,11 @@
       <c r="P107" s="319"/>
     </row>
     <row r="108" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D108" s="375" t="s">
+      <c r="D108" s="392" t="s">
         <v>239</v>
       </c>
-      <c r="E108" s="375"/>
-      <c r="F108" s="375"/>
+      <c r="E108" s="392"/>
+      <c r="F108" s="392"/>
       <c r="G108" s="268"/>
       <c r="H108" s="228"/>
       <c r="K108" s="299"/>
@@ -20160,9 +20054,9 @@
       <c r="P108" s="319"/>
     </row>
     <row r="109" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D109" s="376"/>
-      <c r="E109" s="376"/>
-      <c r="F109" s="376"/>
+      <c r="D109" s="393"/>
+      <c r="E109" s="393"/>
+      <c r="F109" s="393"/>
       <c r="G109" s="268"/>
       <c r="H109" s="228"/>
       <c r="K109" s="299"/>
@@ -20173,9 +20067,9 @@
       <c r="P109" s="319"/>
     </row>
     <row r="110" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D110" s="376"/>
-      <c r="E110" s="376"/>
-      <c r="F110" s="376"/>
+      <c r="D110" s="393"/>
+      <c r="E110" s="393"/>
+      <c r="F110" s="393"/>
       <c r="K110" s="299"/>
       <c r="L110" s="139"/>
       <c r="M110" s="139"/>
@@ -20691,21 +20585,21 @@
       </c>
     </row>
     <row r="149" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D149" s="371" t="s">
+      <c r="D149" s="388" t="s">
         <v>239</v>
       </c>
-      <c r="E149" s="371"/>
-      <c r="F149" s="371"/>
+      <c r="E149" s="388"/>
+      <c r="F149" s="388"/>
     </row>
     <row r="150" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D150" s="372"/>
-      <c r="E150" s="372"/>
-      <c r="F150" s="372"/>
+      <c r="D150" s="389"/>
+      <c r="E150" s="389"/>
+      <c r="F150" s="389"/>
     </row>
     <row r="151" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D151" s="372"/>
-      <c r="E151" s="372"/>
-      <c r="F151" s="372"/>
+      <c r="D151" s="389"/>
+      <c r="E151" s="389"/>
+      <c r="F151" s="389"/>
     </row>
     <row r="153" spans="4:16" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D153" s="180" t="s">
@@ -20725,11 +20619,11 @@
       <c r="F154" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H154" s="382" t="s">
+      <c r="H154" s="394" t="s">
         <v>251</v>
       </c>
-      <c r="I154" s="383"/>
-      <c r="J154" s="384"/>
+      <c r="I154" s="395"/>
+      <c r="J154" s="396"/>
     </row>
     <row r="155" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D155" s="73" t="s">
@@ -21020,21 +20914,21 @@
       </c>
     </row>
     <row r="176" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D176" s="371" t="s">
+      <c r="D176" s="388" t="s">
         <v>239</v>
       </c>
-      <c r="E176" s="371"/>
-      <c r="F176" s="371"/>
+      <c r="E176" s="388"/>
+      <c r="F176" s="388"/>
     </row>
     <row r="177" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D177" s="372"/>
-      <c r="E177" s="372"/>
-      <c r="F177" s="372"/>
+      <c r="D177" s="389"/>
+      <c r="E177" s="389"/>
+      <c r="F177" s="389"/>
     </row>
     <row r="178" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D178" s="372"/>
-      <c r="E178" s="372"/>
-      <c r="F178" s="372"/>
+      <c r="D178" s="389"/>
+      <c r="E178" s="389"/>
+      <c r="F178" s="389"/>
     </row>
     <row r="179" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D179" s="50"/>
@@ -21085,7 +20979,7 @@
       </c>
     </row>
     <row r="182" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="396" t="s">
+      <c r="B182" s="371" t="s">
         <v>123</v>
       </c>
       <c r="D182" s="73" t="s">
@@ -21120,7 +21014,7 @@
       </c>
     </row>
     <row r="183" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B183" s="396"/>
+      <c r="B183" s="371"/>
       <c r="D183" s="75" t="s">
         <v>100</v>
       </c>
@@ -21138,7 +21032,7 @@
       </c>
     </row>
     <row r="184" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B184" s="396"/>
+      <c r="B184" s="371"/>
       <c r="D184" s="75" t="s">
         <v>100</v>
       </c>
@@ -21156,7 +21050,7 @@
       </c>
     </row>
     <row r="185" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B185" s="396"/>
+      <c r="B185" s="371"/>
       <c r="D185" s="75" t="s">
         <v>100</v>
       </c>
@@ -21179,7 +21073,7 @@
       </c>
     </row>
     <row r="186" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="396"/>
+      <c r="B186" s="371"/>
       <c r="D186" s="75" t="s">
         <v>100</v>
       </c>
@@ -21195,17 +21089,17 @@
       <c r="H186" s="182">
         <v>209.4545454545447</v>
       </c>
-      <c r="J186" s="373" t="s">
+      <c r="J186" s="390" t="s">
         <v>112</v>
       </c>
-      <c r="K186" s="374"/>
+      <c r="K186" s="391"/>
       <c r="L186" s="116">
         <f>H182*$J$182+H189*$K$182+H196*$L$182+H203*$M$182+H210*$N$182</f>
         <v>230.39999999999918</v>
       </c>
     </row>
     <row r="187" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="396"/>
+      <c r="B187" s="371"/>
       <c r="D187" s="75" t="s">
         <v>100</v>
       </c>
@@ -21221,17 +21115,17 @@
       <c r="H187" s="182">
         <v>240.71641791044686</v>
       </c>
-      <c r="J187" s="373" t="s">
+      <c r="J187" s="390" t="s">
         <v>113</v>
       </c>
-      <c r="K187" s="374"/>
+      <c r="K187" s="391"/>
       <c r="L187" s="116">
         <f t="shared" ref="L187:L192" si="44">H183*$J$182+H190*$K$182+H197*$L$182+H204*$M$182+H211*$N$182</f>
         <v>249.77943925233555</v>
       </c>
     </row>
     <row r="188" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="396"/>
+      <c r="B188" s="371"/>
       <c r="D188" s="77" t="s">
         <v>100</v>
       </c>
@@ -21247,17 +21141,17 @@
       <c r="H188" s="183">
         <v>260.1290322580636</v>
       </c>
-      <c r="J188" s="373" t="s">
+      <c r="J188" s="390" t="s">
         <v>114</v>
       </c>
-      <c r="K188" s="374"/>
+      <c r="K188" s="391"/>
       <c r="L188" s="116">
         <f t="shared" si="44"/>
         <v>275.52989690721552</v>
       </c>
     </row>
     <row r="189" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="396" t="s">
+      <c r="B189" s="371" t="s">
         <v>124</v>
       </c>
       <c r="D189" s="73" t="s">
@@ -21275,17 +21169,17 @@
       <c r="H189" s="184">
         <v>198.6206896551717</v>
       </c>
-      <c r="J189" s="373" t="s">
+      <c r="J189" s="390" t="s">
         <v>129</v>
       </c>
-      <c r="K189" s="374"/>
+      <c r="K189" s="391"/>
       <c r="L189" s="116">
         <f t="shared" si="44"/>
         <v>307.19999999999891</v>
       </c>
     </row>
     <row r="190" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="396"/>
+      <c r="B190" s="371"/>
       <c r="D190" s="75" t="s">
         <v>100</v>
       </c>
@@ -21301,17 +21195,17 @@
       <c r="H190" s="182">
         <v>215.32710280373755</v>
       </c>
-      <c r="J190" s="373" t="s">
+      <c r="J190" s="390" t="s">
         <v>130</v>
       </c>
-      <c r="K190" s="374"/>
+      <c r="K190" s="391"/>
       <c r="L190" s="116">
         <f t="shared" si="44"/>
         <v>347.0961038961027</v>
       </c>
     </row>
     <row r="191" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="396"/>
+      <c r="B191" s="371"/>
       <c r="D191" s="75" t="s">
         <v>100</v>
       </c>
@@ -21327,17 +21221,17 @@
       <c r="H191" s="182">
         <v>237.52577319587542</v>
       </c>
-      <c r="J191" s="373" t="s">
+      <c r="J191" s="390" t="s">
         <v>131</v>
       </c>
-      <c r="K191" s="374"/>
+      <c r="K191" s="391"/>
       <c r="L191" s="116">
         <f t="shared" si="44"/>
         <v>398.90149253731192</v>
       </c>
     </row>
     <row r="192" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="396"/>
+      <c r="B192" s="371"/>
       <c r="D192" s="75" t="s">
         <v>100</v>
       </c>
@@ -21353,17 +21247,17 @@
       <c r="H192" s="182">
         <v>264.8275862068956</v>
       </c>
-      <c r="J192" s="373" t="s">
+      <c r="J192" s="390" t="s">
         <v>132</v>
       </c>
-      <c r="K192" s="374"/>
+      <c r="K192" s="391"/>
       <c r="L192" s="116">
         <f t="shared" si="44"/>
         <v>431.07096774193394</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B193" s="396"/>
+      <c r="B193" s="371"/>
       <c r="D193" s="75" t="s">
         <v>100</v>
       </c>
@@ -21381,7 +21275,7 @@
       </c>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B194" s="396"/>
+      <c r="B194" s="371"/>
       <c r="D194" s="75" t="s">
         <v>100</v>
       </c>
@@ -21399,7 +21293,7 @@
       </c>
     </row>
     <row r="195" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="396"/>
+      <c r="B195" s="371"/>
       <c r="D195" s="81" t="s">
         <v>100</v>
       </c>
@@ -21417,7 +21311,7 @@
       </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B196" s="396" t="s">
+      <c r="B196" s="371" t="s">
         <v>125</v>
       </c>
       <c r="D196" s="83" t="s">
@@ -21437,7 +21331,7 @@
       </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B197" s="396"/>
+      <c r="B197" s="371"/>
       <c r="D197" s="75" t="s">
         <v>100</v>
       </c>
@@ -21455,7 +21349,7 @@
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B198" s="396"/>
+      <c r="B198" s="371"/>
       <c r="D198" s="75" t="s">
         <v>100</v>
       </c>
@@ -21473,7 +21367,7 @@
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B199" s="396"/>
+      <c r="B199" s="371"/>
       <c r="D199" s="75" t="s">
         <v>100</v>
       </c>
@@ -21491,7 +21385,7 @@
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B200" s="396"/>
+      <c r="B200" s="371"/>
       <c r="D200" s="75" t="s">
         <v>100</v>
       </c>
@@ -21509,7 +21403,7 @@
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B201" s="396"/>
+      <c r="B201" s="371"/>
       <c r="D201" s="75" t="s">
         <v>100</v>
       </c>
@@ -21527,7 +21421,7 @@
       </c>
     </row>
     <row r="202" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="396"/>
+      <c r="B202" s="371"/>
       <c r="D202" s="81" t="s">
         <v>100</v>
       </c>
@@ -21545,7 +21439,7 @@
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B203" s="396" t="s">
+      <c r="B203" s="371" t="s">
         <v>126</v>
       </c>
       <c r="D203" s="83" t="s">
@@ -21565,7 +21459,7 @@
       </c>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B204" s="396"/>
+      <c r="B204" s="371"/>
       <c r="D204" s="75" t="s">
         <v>100</v>
       </c>
@@ -21583,7 +21477,7 @@
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B205" s="396"/>
+      <c r="B205" s="371"/>
       <c r="D205" s="75" t="s">
         <v>100</v>
       </c>
@@ -21601,7 +21495,7 @@
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B206" s="396"/>
+      <c r="B206" s="371"/>
       <c r="D206" s="75" t="s">
         <v>100</v>
       </c>
@@ -21619,7 +21513,7 @@
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B207" s="396"/>
+      <c r="B207" s="371"/>
       <c r="D207" s="75" t="s">
         <v>100</v>
       </c>
@@ -21637,7 +21531,7 @@
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B208" s="396"/>
+      <c r="B208" s="371"/>
       <c r="D208" s="75" t="s">
         <v>100</v>
       </c>
@@ -21655,7 +21549,7 @@
       </c>
     </row>
     <row r="209" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="396"/>
+      <c r="B209" s="371"/>
       <c r="D209" s="77" t="s">
         <v>100</v>
       </c>
@@ -21673,7 +21567,7 @@
       </c>
     </row>
     <row r="210" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B210" s="396" t="s">
+      <c r="B210" s="371" t="s">
         <v>127</v>
       </c>
       <c r="D210" s="73" t="s">
@@ -21693,7 +21587,7 @@
       </c>
     </row>
     <row r="211" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B211" s="396"/>
+      <c r="B211" s="371"/>
       <c r="D211" s="75" t="s">
         <v>100</v>
       </c>
@@ -21711,7 +21605,7 @@
       </c>
     </row>
     <row r="212" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B212" s="396"/>
+      <c r="B212" s="371"/>
       <c r="D212" s="75" t="s">
         <v>100</v>
       </c>
@@ -21729,7 +21623,7 @@
       </c>
     </row>
     <row r="213" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B213" s="396"/>
+      <c r="B213" s="371"/>
       <c r="D213" s="75" t="s">
         <v>100</v>
       </c>
@@ -21747,7 +21641,7 @@
       </c>
     </row>
     <row r="214" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B214" s="396"/>
+      <c r="B214" s="371"/>
       <c r="D214" s="75" t="s">
         <v>100</v>
       </c>
@@ -21765,7 +21659,7 @@
       </c>
     </row>
     <row r="215" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B215" s="396"/>
+      <c r="B215" s="371"/>
       <c r="D215" s="75" t="s">
         <v>100</v>
       </c>
@@ -21783,7 +21677,7 @@
       </c>
     </row>
     <row r="216" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="396"/>
+      <c r="B216" s="371"/>
       <c r="D216" s="81" t="s">
         <v>100</v>
       </c>
@@ -21801,20 +21695,20 @@
       </c>
     </row>
     <row r="217" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D217" s="371" t="s">
+      <c r="D217" s="388" t="s">
         <v>239</v>
       </c>
-      <c r="E217" s="371"/>
-      <c r="F217" s="371"/>
-      <c r="G217" s="371"/>
-      <c r="H217" s="371"/>
+      <c r="E217" s="388"/>
+      <c r="F217" s="388"/>
+      <c r="G217" s="388"/>
+      <c r="H217" s="388"/>
     </row>
     <row r="218" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D218" s="372"/>
-      <c r="E218" s="372"/>
-      <c r="F218" s="372"/>
-      <c r="G218" s="372"/>
-      <c r="H218" s="372"/>
+      <c r="D218" s="389"/>
+      <c r="E218" s="389"/>
+      <c r="F218" s="389"/>
+      <c r="G218" s="389"/>
+      <c r="H218" s="389"/>
     </row>
     <row r="220" spans="2:20" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D220" s="180" t="s">
@@ -21890,10 +21784,10 @@
       <c r="O222" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="R222" s="393" t="s">
+      <c r="R222" s="375" t="s">
         <v>112</v>
       </c>
-      <c r="S222" s="394"/>
+      <c r="S222" s="376"/>
       <c r="T222" s="104">
         <f>I222*$K$223+I225*$L$223+I228*$M$223+I231*$N$223+I234*$O$223</f>
         <v>7997.2788862459374</v>
@@ -21933,10 +21827,10 @@
       <c r="O223" s="102">
         <v>0.02</v>
       </c>
-      <c r="R223" s="393" t="s">
+      <c r="R223" s="375" t="s">
         <v>113</v>
       </c>
-      <c r="S223" s="394"/>
+      <c r="S223" s="376"/>
       <c r="T223" s="104">
         <f>I223*$K$223+I226*$L$223+I229*$M$223+I232*$N$223+I235*$O$223</f>
         <v>8194.1635171830039</v>
@@ -21961,10 +21855,10 @@
       <c r="I224" s="202">
         <v>2792.7179487179487</v>
       </c>
-      <c r="R224" s="393" t="s">
+      <c r="R224" s="375" t="s">
         <v>114</v>
       </c>
-      <c r="S224" s="394"/>
+      <c r="S224" s="376"/>
       <c r="T224" s="104">
         <f>I224*$K$223+I227*$L$223+I230*$M$223+I233*$N$223+I236*$O$223</f>
         <v>8444.2043794558067</v>
@@ -22280,22 +22174,22 @@
       </c>
     </row>
     <row r="240" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D240" s="371" t="s">
+      <c r="D240" s="388" t="s">
         <v>239</v>
       </c>
-      <c r="E240" s="371"/>
-      <c r="F240" s="371"/>
-      <c r="G240" s="371"/>
-      <c r="H240" s="371"/>
-      <c r="I240" s="371"/>
+      <c r="E240" s="388"/>
+      <c r="F240" s="388"/>
+      <c r="G240" s="388"/>
+      <c r="H240" s="388"/>
+      <c r="I240" s="388"/>
     </row>
     <row r="241" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D241" s="372"/>
-      <c r="E241" s="372"/>
-      <c r="F241" s="372"/>
-      <c r="G241" s="372"/>
-      <c r="H241" s="372"/>
-      <c r="I241" s="372"/>
+      <c r="D241" s="389"/>
+      <c r="E241" s="389"/>
+      <c r="F241" s="389"/>
+      <c r="G241" s="389"/>
+      <c r="H241" s="389"/>
+      <c r="I241" s="389"/>
     </row>
     <row r="297" spans="19:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="298" spans="19:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22431,33 +22325,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B182:B188"/>
-    <mergeCell ref="B189:B195"/>
-    <mergeCell ref="B196:B202"/>
-    <mergeCell ref="B203:B209"/>
-    <mergeCell ref="B210:B216"/>
-    <mergeCell ref="AN41:AR42"/>
-    <mergeCell ref="AN40:AR40"/>
-    <mergeCell ref="P41:S42"/>
-    <mergeCell ref="V40:Z40"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="AB41:AE42"/>
-    <mergeCell ref="AH40:AK40"/>
-    <mergeCell ref="AH41:AK42"/>
-    <mergeCell ref="R222:S222"/>
-    <mergeCell ref="R223:S223"/>
-    <mergeCell ref="R224:S224"/>
-    <mergeCell ref="R221:S221"/>
-    <mergeCell ref="K221:O221"/>
-    <mergeCell ref="L101:O103"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G42"/>
-    <mergeCell ref="H94:J96"/>
-    <mergeCell ref="M81:P81"/>
-    <mergeCell ref="M82:P83"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M42"/>
     <mergeCell ref="D240:I241"/>
     <mergeCell ref="D217:H218"/>
     <mergeCell ref="D81:K82"/>
@@ -22474,6 +22341,33 @@
     <mergeCell ref="J190:K190"/>
     <mergeCell ref="H113:L113"/>
     <mergeCell ref="H154:J154"/>
+    <mergeCell ref="L101:O103"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G42"/>
+    <mergeCell ref="H94:J96"/>
+    <mergeCell ref="M81:P81"/>
+    <mergeCell ref="M82:P83"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J41:M42"/>
+    <mergeCell ref="R222:S222"/>
+    <mergeCell ref="R223:S223"/>
+    <mergeCell ref="R224:S224"/>
+    <mergeCell ref="R221:S221"/>
+    <mergeCell ref="K221:O221"/>
+    <mergeCell ref="AN41:AR42"/>
+    <mergeCell ref="AN40:AR40"/>
+    <mergeCell ref="P41:S42"/>
+    <mergeCell ref="V40:Z40"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="AB41:AE42"/>
+    <mergeCell ref="AH40:AK40"/>
+    <mergeCell ref="AH41:AK42"/>
+    <mergeCell ref="B182:B188"/>
+    <mergeCell ref="B189:B195"/>
+    <mergeCell ref="B196:B202"/>
+    <mergeCell ref="B203:B209"/>
+    <mergeCell ref="B210:B216"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22482,12 +22376,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23096,18 +22990,224 @@
     <mergeCell ref="O25:Q27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf"/>
-    <hyperlink ref="D10" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf"/>
-    <hyperlink ref="D9" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf"/>
-    <hyperlink ref="D8" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf"/>
-    <hyperlink ref="D6" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf"/>
-    <hyperlink ref="D5" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf"/>
-    <hyperlink ref="D4" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf"/>
-    <hyperlink ref="B40" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D9" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="D5" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="D4" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="B40" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
   <legacyDrawing r:id="rId11"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="320" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="321"/>
+      <c r="H1" s="321"/>
+      <c r="I1" s="320"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="322" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="320"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="320"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="321"/>
+      <c r="H3" s="321"/>
+      <c r="I3" s="320"/>
+    </row>
+    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="323" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="324"/>
+      <c r="D4" s="325"/>
+      <c r="E4" s="324"/>
+      <c r="F4" s="326"/>
+      <c r="G4" s="327"/>
+      <c r="H4" s="327"/>
+      <c r="I4" s="370" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="328" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="328" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="329" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="328" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="330" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="331"/>
+      <c r="H5" s="332" t="s">
+        <v>265</v>
+      </c>
+      <c r="I5" s="370"/>
+    </row>
+    <row r="6" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="333" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="334"/>
+      <c r="H6" s="335"/>
+      <c r="I6" s="336" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="337">
+        <v>2018</v>
+      </c>
+      <c r="C7" s="337">
+        <v>50</v>
+      </c>
+      <c r="D7" s="337" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="337" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="338">
+        <v>7000</v>
+      </c>
+      <c r="G7" s="80">
+        <f>VLOOKUP(H7,Tabla_mes,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="H7" s="339" t="s">
+        <v>257</v>
+      </c>
+      <c r="I7" s="340">
+        <f>(Variables!F98-Variables!F94)/(1-Factores!$C$12)*1/1000*Factores!$Q$12*F7</f>
+        <v>791.92131431783184</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="337">
+        <v>2018</v>
+      </c>
+      <c r="C8" s="337">
+        <v>150</v>
+      </c>
+      <c r="D8" s="337" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="337" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="338">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="80">
+        <f>VLOOKUP(H8,Tabla_mes,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="H8" s="339" t="s">
+        <v>273</v>
+      </c>
+      <c r="I8" s="340">
+        <f>(Variables!F104-Variables!F101)/(1-Factores!$C$12)*1/1000*Factores!$Q$12*F8</f>
+        <v>950.68585152200637</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="341"/>
+      <c r="D9" s="342"/>
+      <c r="E9" s="343"/>
+      <c r="F9" s="344"/>
+      <c r="G9" s="344"/>
+      <c r="H9" s="344"/>
+      <c r="I9" s="345">
+        <f>SUM(I7:I8)</f>
+        <v>1742.6071658398382</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I4:I5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>Lista_meses</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>Variables!$B$93:$B$95</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7:C8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+          <x14:formula1>
+            <xm:f>Variables!$F$12:$F$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>D7:E8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>